--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,8 +735,60 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hoi, hebben jullie al iets gehoord?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Testmail #1: Hoi, hebben jullie al iets gehoord?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Opvolging / Status</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We hebben je eerdere e-mail ontvangen en doorgestuurd naar klantenservice@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-04 19:59:12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -756,7 +808,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="G2:G3">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -764,17 +816,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="H2:H3">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -816,7 +868,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,8 +787,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Is er al nieuws?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Testmail #2: Is er al nieuws?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Opvolging / Status</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We hebben je eerdere e-mail ontvangen en doorgestuurd naar klantenservice@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:01:22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -808,7 +860,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="G2:G4">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -816,17 +868,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H2:H4">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="I2:I4">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="J2:J4">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -868,7 +920,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2</f>
+              <f>'Dashboard'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2</f>
+              <f>'Dashboard'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,8 +839,60 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Testmail #3: Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We hebben je eerdere e-mail ontvangen en doorgestuurd naar retour@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:03:35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -860,7 +912,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -868,17 +920,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -893,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,6 +975,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,8 +891,68 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Testmail #1: Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Bedankt voor uw bericht. Om uw vraag te kunnen beantwoorden, heb ik wat meer informatie nodig. Kunt u mij de volgende gegevens bezorgen:
+1. Het ordernummer van uw aankoop.
+2. De datum waarop de terugbetaling is aangevraagd.
+3. Eventuele referentienummers of andere relevante details.
+Met deze gegevens kan ik uw zaak verder onderzoeken en u van passende ondersteuning voorzien.
+Met vriendelijke groet,
+[Naam] 
+Klantenservice Team</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:07:30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5">
+  <conditionalFormatting sqref="D2:D6">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -912,7 +972,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
+  <conditionalFormatting sqref="G2:G6">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -920,17 +980,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
+  <conditionalFormatting sqref="H2:H6">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
+  <conditionalFormatting sqref="I2:I6">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -982,7 +1042,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$3</f>
+              <f>'Dashboard'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$3</f>
+              <f>'Dashboard'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,8 +951,60 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kun jij dit even regelen?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Testmail #1: Kun jij dit even regelen?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:09:20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D6">
+  <conditionalFormatting sqref="D2:D7">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -972,7 +1024,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G6">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -980,17 +1032,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H6">
+  <conditionalFormatting sqref="H2:H7">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
+  <conditionalFormatting sqref="I2:I7">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J7">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1005,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1097,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,8 +1003,60 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Wil je dit oppakken?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Testmail #2: Wil je dit oppakken?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:11:50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D7">
+  <conditionalFormatting sqref="D2:D8">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1024,7 +1076,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G7">
+  <conditionalFormatting sqref="G2:G8">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1032,17 +1084,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7">
+  <conditionalFormatting sqref="H2:H8">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7">
+  <conditionalFormatting sqref="I2:I8">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J7">
+  <conditionalFormatting sqref="J2:J8">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1104,7 +1156,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,8 +1055,60 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kun jij dit afhandelen?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Testmail #3: Kun jij dit afhandelen?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:14:02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1076,7 +1128,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1084,17 +1136,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I8">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J8">
+  <conditionalFormatting sqref="J2:J9">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1142,17 +1194,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Retour / Terugbetaling</t>
+          <t>Planning / Afspraak</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Planning / Afspraak</t>
+          <t>Retour / Terugbetaling</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$4</f>
+              <f>'Dashboard'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$4</f>
+              <f>'Dashboard'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,8 +1107,60 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Wil je 100 stuks M5-bouten bestellen?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Testmail #4: Wil je 100 stuks M5-bouten bestellen?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar inkoop@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:16:21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="D2:D10">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1128,7 +1180,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
+  <conditionalFormatting sqref="G2:G10">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1136,17 +1188,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="I2:I10">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1161,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,6 +1263,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$5</f>
+              <f>'Dashboard'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$5</f>
+              <f>'Dashboard'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,8 +1159,64 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wil je deze klant bellen?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Testmail #5: Wil je deze klant bellen?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Klantenservice / Contact</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Beste collega,
+Dank voor het doorsturen van deze testmail. Kun je wat meer context geven over wie deze klant is en waarom we hen zouden moeten bellen? Dan kan ik de juiste acties ondernemen.
+Met vriendelijke groet,
+[Jouw naam]  
+[Jouw functie]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:18:33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D10">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1180,7 +1236,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G10">
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1188,17 +1244,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10">
+  <conditionalFormatting sqref="H2:H11">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="I2:I11">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J10">
+  <conditionalFormatting sqref="J2:J11">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1213,7 +1269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,6 +1329,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Klantenservice / Contact</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,8 +1215,60 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hebben we EcoPro-700 nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Testmail #6: Hebben we EcoPro-700 nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar inkoop@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:20:43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D11">
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1236,7 +1288,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
+  <conditionalFormatting sqref="G2:G12">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1244,17 +1296,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
+  <conditionalFormatting sqref="H2:H12">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
+  <conditionalFormatting sqref="I2:I12">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J11">
+  <conditionalFormatting sqref="J2:J12">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1326,7 +1378,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,8 +1267,60 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kun jij dit even regelen?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Testmail #1: Kun jij dit even regelen?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:26:35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D12">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1288,7 +1340,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1296,17 +1348,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H12">
+  <conditionalFormatting sqref="H2:H13">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
+  <conditionalFormatting sqref="I2:I13">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J13">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1344,17 +1396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Opvolging / Status</t>
+          <t>Planning / Afspraak</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Planning / Afspraak</t>
+          <t>Opvolging / Status</t>
         </is>
       </c>
       <c r="B3" t="n">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,8 +1319,60 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wil je dit oppakken?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Testmail #2: Wil je dit oppakken?</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:28:53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D14">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1340,7 +1392,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G2:G14">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1348,17 +1400,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
+  <conditionalFormatting sqref="H2:H14">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
+  <conditionalFormatting sqref="I2:I14">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="J2:J14">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1400,7 +1452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,8 +1371,60 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kun jij dit afhandelen?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Testmail #3: Kun jij dit afhandelen?</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:31:25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1392,7 +1444,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="G2:G15">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1400,17 +1452,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H14">
+  <conditionalFormatting sqref="H2:H15">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I14">
+  <conditionalFormatting sqref="I2:I15">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J14">
+  <conditionalFormatting sqref="J2:J15">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1452,7 +1504,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,8 +1423,60 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Wil je 100 stuks M5-bouten bestellen?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Testmail #4: Wil je 100 stuks M5-bouten bestellen?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar inkoop@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:33:58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D15">
+  <conditionalFormatting sqref="D2:D16">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1444,7 +1496,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G15">
+  <conditionalFormatting sqref="G2:G16">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1452,17 +1504,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H15">
+  <conditionalFormatting sqref="H2:H16">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I15">
+  <conditionalFormatting sqref="I2:I16">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J15">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1520,17 +1572,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Retour / Terugbetaling</t>
+          <t>Inkoop / Bestellingen</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Inkoop / Bestellingen</t>
+          <t>Retour / Terugbetaling</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,8 +1475,63 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Wil je deze klant bellen?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Testmail #5: Wil je deze klant bellen?</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Klantenservice / Contact</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Geachte heer/mevrouw,
+Bedankt voor uw e-mail. We zullen de klant zo snel mogelijk contacteren. Mocht u nog meer informatie hebben die u met ons wilt delen, dan horen we dat graag.
+Met vriendelijke groet,
+[Naam bedrijf]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:36:10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D16">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1496,7 +1551,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G16">
+  <conditionalFormatting sqref="G2:G17">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1504,17 +1559,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H16">
+  <conditionalFormatting sqref="H2:H17">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I16">
+  <conditionalFormatting sqref="I2:I17">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J16">
+  <conditionalFormatting sqref="J2:J17">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1596,7 +1651,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,8 +1530,60 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hebben we EcoPro-700 nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Testmail #6: Hebben we EcoPro-700 nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar inkoop@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:38:25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D17">
+  <conditionalFormatting sqref="D2:D18">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1551,7 +1603,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G17">
+  <conditionalFormatting sqref="G2:G18">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1559,17 +1611,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H18">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
+  <conditionalFormatting sqref="I2:I18">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17">
+  <conditionalFormatting sqref="J2:J18">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1617,17 +1669,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Opvolging / Status</t>
+          <t>Inkoop / Bestellingen</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Inkoop / Bestellingen</t>
+          <t>Opvolging / Status</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,8 +1582,60 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Is dit artikel nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Testmail #7: Is dit artikel nog op voorraad?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar inkoop@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:40:33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D18">
+  <conditionalFormatting sqref="D2:D19">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1603,7 +1655,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G18">
+  <conditionalFormatting sqref="G2:G19">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1611,17 +1663,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H18">
+  <conditionalFormatting sqref="H2:H19">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I18">
+  <conditionalFormatting sqref="I2:I19">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J18">
+  <conditionalFormatting sqref="J2:J19">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1673,7 +1725,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,8 +1634,60 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kun je nagaan of dit nog leverbaar is?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Testmail #8: Kun je nagaan of dit nog leverbaar is?</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar inkoop@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:42:45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D19">
+  <conditionalFormatting sqref="D2:D20">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1655,7 +1707,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G19">
+  <conditionalFormatting sqref="G2:G20">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1663,17 +1715,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H19">
+  <conditionalFormatting sqref="H2:H20">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I19">
+  <conditionalFormatting sqref="I2:I20">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J19">
+  <conditionalFormatting sqref="J2:J20">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1725,7 +1777,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,8 +1686,60 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hoi, hebben jullie al iets gehoord?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Testmail #9: Hoi, hebben jullie al iets gehoord?</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Opvolging / Status</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We hebben je eerdere e-mail ontvangen en doorgestuurd naar klantenservice@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:44:55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D20">
+  <conditionalFormatting sqref="D2:D21">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1707,7 +1759,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G20">
+  <conditionalFormatting sqref="G2:G21">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1715,17 +1767,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H20">
+  <conditionalFormatting sqref="H2:H21">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I20">
+  <conditionalFormatting sqref="I2:I21">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J20">
+  <conditionalFormatting sqref="J2:J21">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1787,7 +1839,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,8 +1738,60 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Is er al nieuws?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Testmail #10: Is er al nieuws?</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Opvolging / Status</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dank voor je bericht. We hebben je eerdere e-mail ontvangen en doorgestuurd naar klantenservice@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:47:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D21">
+  <conditionalFormatting sqref="D2:D22">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1759,7 +1811,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G21">
+  <conditionalFormatting sqref="G2:G22">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1767,17 +1819,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H21">
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I21">
+  <conditionalFormatting sqref="I2:I22">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J21">
+  <conditionalFormatting sqref="J2:J22">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1839,7 +1891,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1790,8 +1790,63 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mijn retour is nog steeds niet verwerkt.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Testmail #11: Mijn retour is nog steeds niet verwerkt.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Dank u voor uw bericht. Om uw retourzending verder te kunnen onderzoeken, heb ik wat meer informatie nodig. Kunt u alstublieft uw ordernummer en de datum van de retourzending doorgeven? Op die manier kunnen wij u sneller van dienst zijn.
+Met vriendelijke groet,
+[Naam bedrijf] E-mailassistent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:49:17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D22">
+  <conditionalFormatting sqref="D2:D23">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1811,7 +1866,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G22">
+  <conditionalFormatting sqref="G2:G23">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1819,17 +1874,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H22">
+  <conditionalFormatting sqref="H2:H23">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I22">
+  <conditionalFormatting sqref="I2:I23">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J22">
+  <conditionalFormatting sqref="J2:J23">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1901,7 +1956,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,8 +1845,65 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Testmail #12: Ik heb nog geen geld terug.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Retour / Terugbetaling</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Beste klant,
+Bedankt voor uw bericht. Om uw terugbetaling te kunnen verwerken, heb ik wat meer informatie nodig. Kunt u mij uw ordernummer of transactiereferentie geven, zodat ik het voor u kan nakijken?
+Alvast bedankt voor uw medewerking.
+Met vriendelijke groet,
+[Naam] 
+E-mailassistent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:51:30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D23">
+  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1866,7 +1923,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G23">
+  <conditionalFormatting sqref="G2:G24">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1874,17 +1931,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H23">
+  <conditionalFormatting sqref="H2:H24">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23">
+  <conditionalFormatting sqref="I2:I24">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="J2:J24">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1956,7 +2013,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$6</f>
+              <f>'Dashboard'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$6</f>
+              <f>'Dashboard'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1902,8 +1902,60 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kun je mij de datasheet van de VentiQ-250 sturen?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Testmail #13: Kun je mij de datasheet van de VentiQ-250 sturen?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Documentatie / Datasheets</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar documentatie@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:53:41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D24">
+  <conditionalFormatting sqref="D2:D25">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1923,7 +1975,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G24">
+  <conditionalFormatting sqref="G2:G25">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1931,17 +1983,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H24">
+  <conditionalFormatting sqref="H2:H25">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I24">
+  <conditionalFormatting sqref="I2:I25">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J24">
+  <conditionalFormatting sqref="J2:J25">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1956,7 +2008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,7 +2031,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Planning / Afspraak</t>
+          <t>Inkoop / Bestellingen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1989,7 +2041,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Inkoop / Bestellingen</t>
+          <t>Planning / Afspraak</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2024,6 +2076,16 @@
       </c>
       <c r="B6" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Documentatie / Datasheets</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -232,12 +232,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard'!$A$2:$A$7</f>
+              <f>'Dashboard'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard'!$B$2:$B$7</f>
+              <f>'Dashboard'!$B$2:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,8 +1954,60 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Heb je de CE-certificaten van dit product?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Testmail #14: Heb je de CE-certificaten van dit product?</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Kwaliteit / Certificaten</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar kwaliteit@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:55:52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D25">
+  <conditionalFormatting sqref="D2:D26">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -1975,7 +2027,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G25">
+  <conditionalFormatting sqref="G2:G26">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -1983,17 +2035,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H25">
+  <conditionalFormatting sqref="H2:H26">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25">
+  <conditionalFormatting sqref="I2:I26">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J25">
+  <conditionalFormatting sqref="J2:J26">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2008,7 +2060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,7 +2083,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Inkoop / Bestellingen</t>
+          <t>Planning / Afspraak</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2041,7 +2093,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Planning / Afspraak</t>
+          <t>Inkoop / Bestellingen</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2085,6 +2137,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kwaliteit / Certificaten</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,8 +2006,60 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Leg dit even neer bij Koen.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Testmail #15: Leg dit even neer bij Koen.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-04 20:58:04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D26">
+  <conditionalFormatting sqref="D2:D27">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -2027,7 +2079,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G26">
+  <conditionalFormatting sqref="G2:G27">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2035,17 +2087,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H26">
+  <conditionalFormatting sqref="H2:H27">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I26">
+  <conditionalFormatting sqref="I2:I27">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J26">
+  <conditionalFormatting sqref="J2:J27">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2087,7 +2139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,8 +2058,60 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Wil je dit even doorsturen?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Testmail #16: Wil je dit even doorsturen?</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-04 21:00:14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D27">
+  <conditionalFormatting sqref="D2:D28">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -2079,7 +2131,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G27">
+  <conditionalFormatting sqref="G2:G28">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2087,17 +2139,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H27">
+  <conditionalFormatting sqref="H2:H28">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I27">
+  <conditionalFormatting sqref="I2:I28">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J27">
+  <conditionalFormatting sqref="J2:J28">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2139,7 +2191,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,8 +2110,60 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kun je vrijdag om 11:00 een demo inplannen bij Van Dijk?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Testmail #17: Kun je vrijdag om 11:00 een demo inplannen bij Van Dijk?</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Planning / Afspraak</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar planning@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-08-04 21:02:31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D28">
+  <conditionalFormatting sqref="D2:D29">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -2131,7 +2183,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G28">
+  <conditionalFormatting sqref="G2:G29">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2139,17 +2191,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H28">
+  <conditionalFormatting sqref="H2:H29">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I28">
+  <conditionalFormatting sqref="I2:I29">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J28">
+  <conditionalFormatting sqref="J2:J29">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2191,7 +2243,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">

--- a/logs/mail_log_2025-08-04.xlsx
+++ b/logs/mail_log_2025-08-04.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2162,8 +2162,60 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bestel je 200 stuks M8-bouten RVS voor Van Dijk?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mailmind.test@zohomail.eu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Testmail #18: Bestel je 200 stuks M8-bouten RVS voor Van Dijk?</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Inkoop / Bestellingen</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bedankt, we hebben dit doorgestuurd naar inkoop@bedrijf.nl.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-08-04 21:04:43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Nee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D29">
+  <conditionalFormatting sqref="D2:D30">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Klacht"</formula>
     </cfRule>
@@ -2183,7 +2235,7 @@
       <formula>"Overig"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29">
+  <conditionalFormatting sqref="G2:G30">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2191,17 +2243,17 @@
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H29">
+  <conditionalFormatting sqref="H2:H30">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I29">
+  <conditionalFormatting sqref="I2:I30">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J29">
+  <conditionalFormatting sqref="J2:J30">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
       <formula>"Ja"</formula>
     </cfRule>
@@ -2253,7 +2305,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
